--- a/Programming The SemanticWeb.xlsx
+++ b/Programming The SemanticWeb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="525" windowWidth="27555" windowHeight="12180"/>
+    <workbookView xWindow="720" yWindow="525" windowWidth="27555" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -252,10 +252,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$100</c:f>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>15.691666666927631</c:v>
                 </c:pt>
@@ -295,10 +295,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$100</c:f>
+              <c:f>Sheet1!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>15.691666666927631</c:v>
                 </c:pt>
@@ -329,11 +329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56933376"/>
-        <c:axId val="73561728"/>
+        <c:axId val="141357056"/>
+        <c:axId val="139907584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56933376"/>
+        <c:axId val="141357056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -381,7 +381,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73561728"/>
+        <c:crossAx val="139907584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -389,7 +389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73561728"/>
+        <c:axId val="139907584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56933376"/>
+        <c:crossAx val="141357056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -768,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -833,19 +833,19 @@
         <v>36</v>
       </c>
       <c r="E2" s="11">
-        <f t="shared" ref="E2:E9" si="0">C2-A2</f>
+        <f t="shared" ref="E2" si="0">C2-A2</f>
         <v>8.7500000001455192E-2</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F9" si="1">D2-B2+1</f>
+        <f t="shared" ref="F2" si="1">D2-B2+1</f>
         <v>36</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G9" si="2">F2/(E2*24*60)</f>
+        <f t="shared" ref="G2" si="2">F2/(E2*24*60)</f>
         <v>0.28571428570953405</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H9" si="3">G2*60</f>
+        <f t="shared" ref="H2" si="3">G2*60</f>
         <v>17.142857142572044</v>
       </c>
       <c r="I2" s="2">
@@ -1851,7 +1851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
